--- a/Veslink.Business/Resources/reporttemplate.xlsx
+++ b/Veslink.Business/Resources/reporttemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollos\Veslink\Repos\ReportExport\VeslinkReportExport\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollos\Veslink\Repos\ReportExport\Veslink.Business\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42321B61-BAF6-4FFB-A86D-1BD7EA339294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092E006D-35FE-477D-87AB-A81432A9978C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,7 +351,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="105">
   <si>
     <t>Validation</t>
   </si>
@@ -1799,52 +1799,29 @@
     <xf numFmtId="165" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1856,24 +1833,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1884,6 +1886,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1898,9 +1903,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1910,40 +1912,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2206,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60:D60"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2286,16 +2286,16 @@
     <row r="2" spans="1:31" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -2335,20 +2335,20 @@
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -2388,16 +2388,16 @@
     <row r="4" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -2427,16 +2427,16 @@
     <row r="5" spans="1:31" s="54" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -2538,22 +2538,22 @@
       <c r="AE7" s="4"/>
     </row>
     <row r="8" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -2579,18 +2579,18 @@
       <c r="AE8" s="11"/>
     </row>
     <row r="9" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="71"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="43"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="105"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -2616,18 +2616,18 @@
       <c r="AE9" s="4"/>
     </row>
     <row r="10" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="74"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="68"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2651,20 +2651,20 @@
       <c r="AE10" s="4"/>
     </row>
     <row r="11" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="74"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="13"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="68"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2688,23 +2688,23 @@
       <c r="AE11" s="4"/>
     </row>
     <row r="12" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="74"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="15"/>
       <c r="D12" s="14" t="str">
         <f>IF($C$11=$Y$6,$P$3,$P$2)</f>
         <v>metric tonnes</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="88"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3">
         <v>1000</v>
@@ -2732,20 +2732,20 @@
       <c r="AE12" s="4"/>
     </row>
     <row r="13" spans="1:31" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="101"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="48"/>
       <c r="D13" s="49"/>
-      <c r="E13" s="104" t="s">
+      <c r="E13" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="106"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="88"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2769,16 +2769,16 @@
       <c r="AE13" s="4"/>
     </row>
     <row r="14" spans="1:31" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="81"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="16"/>
@@ -2802,18 +2802,18 @@
       <c r="AE14" s="4"/>
     </row>
     <row r="15" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="103"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="82"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -2874,20 +2874,20 @@
       <c r="AE16" s="11"/>
     </row>
     <row r="17" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="71"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="43"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="77"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="85"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -2911,20 +2911,20 @@
       <c r="AE17" s="4"/>
     </row>
     <row r="18" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="74"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="77"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="85"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -2948,29 +2948,29 @@
       <c r="AE18" s="4"/>
     </row>
     <row r="19" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="74"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="17"/>
       <c r="D19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="86" t="s">
+      <c r="E19" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="88"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
       <c r="K19" s="3"/>
       <c r="L19" s="18">
         <v>43831</v>
       </c>
       <c r="M19" s="18">
         <f t="shared" ref="M19:M20" ca="1" si="0">NOW()</f>
-        <v>44640.737794212961</v>
+        <v>44650.449024884256</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -2991,23 +2991,23 @@
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
     </row>
-    <row r="20" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="85" t="s">
+    <row r="20" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="74"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="19"/>
       <c r="D20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="86" t="s">
+      <c r="E20" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="88"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="3"/>
       <c r="L20" s="18">
         <f>C19</f>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="M20" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>44640.737794212961</v>
+        <v>44650.449024884256</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -3037,22 +3037,22 @@
       <c r="AE20" s="4"/>
     </row>
     <row r="21" spans="1:31" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="64"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="44"/>
       <c r="D21" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="107" t="s">
+      <c r="E21" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="106"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="88"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3">
         <v>1</v>
@@ -3081,16 +3081,16 @@
       <c r="AE21" s="4"/>
     </row>
     <row r="22" spans="1:31" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="81"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="16"/>
@@ -3114,18 +3114,18 @@
       <c r="AE22" s="4"/>
     </row>
     <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="83"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="101"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
@@ -3186,20 +3186,20 @@
       <c r="AE24" s="11"/>
     </row>
     <row r="25" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="71"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="43"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="77"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -3223,20 +3223,20 @@
       <c r="AE25" s="4"/>
     </row>
     <row r="26" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="85" t="s">
+      <c r="A26" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="74"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="13"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="77"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -3260,29 +3260,29 @@
       <c r="AE26" s="4"/>
     </row>
     <row r="27" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="85" t="s">
+      <c r="A27" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="74"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="57"/>
       <c r="D27" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="86" t="s">
+      <c r="E27" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="88"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="68"/>
       <c r="K27" s="3"/>
       <c r="L27" s="18">
         <v>43831</v>
       </c>
       <c r="M27" s="21">
         <f t="shared" ref="M27:M28" ca="1" si="1">NOW()</f>
-        <v>44640.737794212961</v>
+        <v>44650.449024884256</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -3304,22 +3304,22 @@
       <c r="AE27" s="4"/>
     </row>
     <row r="28" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="74"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="19"/>
       <c r="D28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="86" t="s">
+      <c r="E28" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="88"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="68"/>
       <c r="K28" s="3"/>
       <c r="L28" s="21">
         <f>MAX(C27,DATEVALUE("1/1/2021"))</f>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="M28" s="21">
         <f t="shared" ca="1" si="1"/>
-        <v>44640.737794212961</v>
+        <v>44650.449024884256</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -3349,10 +3349,10 @@
       <c r="AE28" s="4"/>
     </row>
     <row r="29" spans="1:31" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="97" t="s">
+      <c r="A29" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="44"/>
       <c r="D29" s="45" t="s">
         <v>89</v>
@@ -3393,16 +3393,16 @@
       <c r="AE29" s="4"/>
     </row>
     <row r="30" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="81"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="16"/>
@@ -3426,18 +3426,18 @@
       <c r="AE30" s="4"/>
     </row>
     <row r="31" spans="1:31" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="92" t="s">
+      <c r="A31" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="16"/>
@@ -3461,18 +3461,18 @@
       <c r="AE31" s="4"/>
     </row>
     <row r="32" spans="1:31" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="95"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="96"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="97"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="16"/>
@@ -4476,11 +4476,11 @@
       <c r="AE56" s="4"/>
     </row>
     <row r="57" spans="1:31" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="58" t="s">
+      <c r="A57" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="41"/>
       <c r="E57" s="38">
         <f>SUM(E36:E56)</f>
@@ -4539,16 +4539,16 @@
       <c r="AE57" s="4"/>
     </row>
     <row r="58" spans="1:31" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="81"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="82"/>
-      <c r="I58" s="82"/>
-      <c r="J58" s="82"/>
+      <c r="A58" s="76"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="16"/>
@@ -4572,20 +4572,20 @@
       <c r="AE58" s="4"/>
     </row>
     <row r="59" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="68" t="s">
+      <c r="A59" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="40"/>
-      <c r="E59" s="78" t="s">
+      <c r="E59" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="80"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="71"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
@@ -4609,20 +4609,20 @@
       <c r="AE59" s="11"/>
     </row>
     <row r="60" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="70" t="s">
+      <c r="A60" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="B60" s="71"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="71"/>
-      <c r="E60" s="60" t="s">
+      <c r="B60" s="65"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="77"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="84"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="85"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -4646,20 +4646,20 @@
       <c r="AE60" s="4"/>
     </row>
     <row r="61" spans="1:31" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="73" t="s">
+      <c r="A61" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="74"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="60" t="s">
+      <c r="B61" s="59"/>
+      <c r="C61" s="113"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="77"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="84"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="84"/>
+      <c r="J61" s="85"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -4683,20 +4683,22 @@
       <c r="AE61" s="4"/>
     </row>
     <row r="62" spans="1:31" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="73" t="s">
+      <c r="A62" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="B62" s="74"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="60" t="s">
+      <c r="B62" s="59"/>
+      <c r="C62" s="113" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="59"/>
+      <c r="E62" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="F62" s="76"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="77"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="84"/>
+      <c r="H62" s="84"/>
+      <c r="I62" s="84"/>
+      <c r="J62" s="85"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -4720,18 +4722,18 @@
       <c r="AE62" s="4"/>
     </row>
     <row r="63" spans="1:31" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="63" t="s">
+      <c r="A63" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="64"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="67"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="108"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="108"/>
+      <c r="G63" s="108"/>
+      <c r="H63" s="108"/>
+      <c r="I63" s="108"/>
+      <c r="J63" s="109"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -35483,20 +35485,37 @@
     <protectedRange sqref="C63 C60:D62 D35:J56 B36:C56 I33:J33 E57:J57 C17:C21 C25:C29 C9:C13" name="Orange fiels"/>
   </protectedRanges>
   <mergeCells count="61">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:J29"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -35513,37 +35532,20 @@
     <mergeCell ref="E16:J16"/>
     <mergeCell ref="E20:J20"/>
     <mergeCell ref="E21:J21"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations xWindow="925" yWindow="377" count="19">
@@ -35648,16 +35650,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Company xmlns="21c3665c-729d-441d-98a7-7128a01b437e" xsi:nil="true"/>
-    <Year xmlns="21c3665c-729d-441d-98a7-7128a01b437e" xsi:nil="true"/>
-    <Type_x0020_of_x0020_Request xmlns="21c3665c-729d-441d-98a7-7128a01b437e" xsi:nil="true"/>
-    <Status xmlns="21c3665c-729d-441d-98a7-7128a01b437e">Listo</Status>
-    <Month xmlns="21c3665c-729d-441d-98a7-7128a01b437e" xsi:nil="true"/>
-    <Username xmlns="21c3665c-729d-441d-98a7-7128a01b437e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35939,28 +35937,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Company xmlns="21c3665c-729d-441d-98a7-7128a01b437e" xsi:nil="true"/>
+    <Year xmlns="21c3665c-729d-441d-98a7-7128a01b437e" xsi:nil="true"/>
+    <Type_x0020_of_x0020_Request xmlns="21c3665c-729d-441d-98a7-7128a01b437e" xsi:nil="true"/>
+    <Status xmlns="21c3665c-729d-441d-98a7-7128a01b437e">Listo</Status>
+    <Month xmlns="21c3665c-729d-441d-98a7-7128a01b437e" xsi:nil="true"/>
+    <Username xmlns="21c3665c-729d-441d-98a7-7128a01b437e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50B676F4-EBD0-4E90-B213-357632402685}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{450CAF8A-A64A-46CB-807F-E9A3FE123F89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="db808e35-644e-4013-b324-7a0b9c71a75d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ac53ce09-0a66-4461-a417-4c6b9320bf82"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="21c3665c-729d-441d-98a7-7128a01b437e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35985,9 +35977,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{450CAF8A-A64A-46CB-807F-E9A3FE123F89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50B676F4-EBD0-4E90-B213-357632402685}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="db808e35-644e-4013-b324-7a0b9c71a75d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ac53ce09-0a66-4461-a417-4c6b9320bf82"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="21c3665c-729d-441d-98a7-7128a01b437e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Veslink.Business/Resources/reporttemplate.xlsx
+++ b/Veslink.Business/Resources/reporttemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollos\Veslink\Repos\ReportExport\Veslink.Business\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A23DB49-20E8-4531-B30D-977CC0D1969D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F7C5A8-65AD-4DD0-B45C-7B5470DE6FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2430" windowWidth="29040" windowHeight="15720" xr2:uid="{76A4AEB4-3F70-4DB7-959B-860846F9256F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{76A4AEB4-3F70-4DB7-959B-860846F9256F}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Form" sheetId="1" r:id="rId1"/>
@@ -1071,15 +1071,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="hh:mm;@"/>
-    <numFmt numFmtId="167" formatCode="h:mm;@"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -2254,16 +2253,16 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
@@ -2279,10 +2278,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2609,13 +2608,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="23" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2633,7 +2632,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2667,7 +2666,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="33" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="33" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2679,7 +2678,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="33" fillId="9" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="33" fillId="9" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2694,13 +2693,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="33" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="33" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="33" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2712,7 +2711,7 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="33" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="33" fillId="11" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2724,10 +2723,10 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="33" fillId="11" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="33" fillId="11" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="170" fontId="26" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="26" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2739,35 +2738,238 @@
     <xf numFmtId="0" fontId="26" fillId="11" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="33" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="33" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2806,240 +3008,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3465,16 +3456,16 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
-      <c r="H3" s="238" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="239"/>
-      <c r="J3" s="239"/>
-      <c r="K3" s="239"/>
-      <c r="L3" s="239"/>
-      <c r="M3" s="239"/>
-      <c r="N3" s="239"/>
-      <c r="O3" s="240"/>
+      <c r="H3" s="219" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
+      <c r="O3" s="202"/>
       <c r="P3" s="17"/>
     </row>
     <row r="4" spans="2:20" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3486,16 +3477,16 @@
       <c r="E4" s="22"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
-      <c r="H4" s="241" t="s">
+      <c r="H4" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="241"/>
-      <c r="J4" s="241"/>
-      <c r="K4" s="241"/>
-      <c r="L4" s="241"/>
-      <c r="M4" s="241"/>
-      <c r="N4" s="241"/>
-      <c r="O4" s="242"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="221"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="221"/>
+      <c r="N4" s="221"/>
+      <c r="O4" s="222"/>
       <c r="P4" s="17"/>
       <c r="T4" s="13" t="s">
         <v>170</v>
@@ -3512,16 +3503,16 @@
         <v>3</v>
       </c>
       <c r="G5" s="24"/>
-      <c r="H5" s="243" t="s">
+      <c r="H5" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="243"/>
-      <c r="J5" s="243"/>
-      <c r="K5" s="243"/>
-      <c r="L5" s="243"/>
-      <c r="M5" s="243"/>
-      <c r="N5" s="243"/>
-      <c r="O5" s="244"/>
+      <c r="I5" s="223"/>
+      <c r="J5" s="223"/>
+      <c r="K5" s="223"/>
+      <c r="L5" s="223"/>
+      <c r="M5" s="223"/>
+      <c r="N5" s="223"/>
+      <c r="O5" s="224"/>
       <c r="P5" s="17"/>
     </row>
     <row r="6" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3535,16 +3526,16 @@
         <v>5</v>
       </c>
       <c r="G6" s="19"/>
-      <c r="H6" s="245" t="s">
+      <c r="H6" s="225" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="245"/>
-      <c r="J6" s="245"/>
-      <c r="K6" s="245"/>
-      <c r="L6" s="245"/>
-      <c r="M6" s="245"/>
-      <c r="N6" s="245"/>
-      <c r="O6" s="246"/>
+      <c r="I6" s="225"/>
+      <c r="J6" s="225"/>
+      <c r="K6" s="225"/>
+      <c r="L6" s="225"/>
+      <c r="M6" s="225"/>
+      <c r="N6" s="225"/>
+      <c r="O6" s="226"/>
       <c r="P6" s="17"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
@@ -3600,8 +3591,8 @@
       <c r="E9" s="40">
         <v>2</v>
       </c>
-      <c r="F9" s="247"/>
-      <c r="G9" s="248"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="228"/>
       <c r="H9" s="41"/>
       <c r="I9" s="42" t="s">
         <v>12</v>
@@ -3624,8 +3615,8 @@
         <f>IF(F10&lt;&gt;"",2,0)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="232"/>
-      <c r="G10" s="233"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="188"/>
       <c r="H10" s="46"/>
       <c r="I10" s="47" t="s">
         <v>14</v>
@@ -3648,10 +3639,10 @@
         <f>IF(F11&lt;&gt;"",2,0)</f>
         <v>2</v>
       </c>
-      <c r="F11" s="232" t="s">
+      <c r="F11" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="233"/>
+      <c r="G11" s="188"/>
       <c r="H11" s="46"/>
       <c r="I11" s="47" t="s">
         <v>17</v>
@@ -3673,8 +3664,8 @@
       <c r="E12" s="29">
         <v>2</v>
       </c>
-      <c r="F12" s="236"/>
-      <c r="G12" s="237"/>
+      <c r="F12" s="215"/>
+      <c r="G12" s="216"/>
       <c r="H12" s="49" t="s">
         <v>19</v>
       </c>
@@ -3696,10 +3687,10 @@
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
       <c r="E13" s="52"/>
-      <c r="F13" s="249" t="s">
+      <c r="F13" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="250"/>
+      <c r="G13" s="218"/>
       <c r="H13" s="46"/>
       <c r="I13" s="47" t="s">
         <v>23</v>
@@ -3721,8 +3712,8 @@
       <c r="E14" s="29">
         <v>22</v>
       </c>
-      <c r="F14" s="251"/>
-      <c r="G14" s="252"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="212"/>
       <c r="H14" s="46"/>
       <c r="I14" s="47" t="s">
         <v>25</v>
@@ -3736,20 +3727,20 @@
       <c r="P14" s="17"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="253"/>
-      <c r="C15" s="254"/>
-      <c r="D15" s="254"/>
-      <c r="E15" s="254"/>
-      <c r="F15" s="254"/>
-      <c r="G15" s="255"/>
-      <c r="H15" s="255"/>
-      <c r="I15" s="255"/>
-      <c r="J15" s="255"/>
-      <c r="K15" s="255"/>
-      <c r="L15" s="255"/>
-      <c r="M15" s="255"/>
-      <c r="N15" s="255"/>
-      <c r="O15" s="240"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="201"/>
+      <c r="M15" s="201"/>
+      <c r="N15" s="201"/>
+      <c r="O15" s="202"/>
       <c r="P15" s="17"/>
     </row>
     <row r="16" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
@@ -3804,18 +3795,18 @@
         <f>IF(F18&lt;&gt;"",2,0)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="222"/>
-      <c r="G18" s="223"/>
+      <c r="F18" s="236"/>
+      <c r="G18" s="237"/>
       <c r="H18" s="41"/>
-      <c r="I18" s="224" t="s">
+      <c r="I18" s="238" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="224"/>
-      <c r="K18" s="224"/>
-      <c r="L18" s="224"/>
-      <c r="M18" s="224"/>
-      <c r="N18" s="224"/>
-      <c r="O18" s="225"/>
+      <c r="J18" s="238"/>
+      <c r="K18" s="238"/>
+      <c r="L18" s="238"/>
+      <c r="M18" s="238"/>
+      <c r="N18" s="238"/>
+      <c r="O18" s="239"/>
       <c r="P18" s="17"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -3828,8 +3819,8 @@
         <f>IF(F19&lt;&gt;"",IF(AND(LEN(F19)&gt;=S19,LEN(F19)&lt;=T19),2,1),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="251"/>
-      <c r="G19" s="252"/>
+      <c r="F19" s="211"/>
+      <c r="G19" s="212"/>
       <c r="H19" s="61"/>
       <c r="I19" s="62" t="s">
         <v>31</v>
@@ -3852,18 +3843,18 @@
         <f>IF(F20&lt;&gt;"",2,0)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="232"/>
-      <c r="G20" s="233"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="188"/>
       <c r="H20" s="46"/>
-      <c r="I20" s="214" t="s">
+      <c r="I20" s="213" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="214"/>
-      <c r="K20" s="214"/>
-      <c r="L20" s="214"/>
-      <c r="M20" s="214"/>
-      <c r="N20" s="214"/>
-      <c r="O20" s="215"/>
+      <c r="J20" s="213"/>
+      <c r="K20" s="213"/>
+      <c r="L20" s="213"/>
+      <c r="M20" s="213"/>
+      <c r="N20" s="213"/>
+      <c r="O20" s="214"/>
       <c r="P20" s="17"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -3876,8 +3867,8 @@
         <f>IF(F21&lt;&gt;"",IF(AND(LEN(F21)&gt;=S21,LEN(F21)&lt;=T21),2,1),0)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="251"/>
-      <c r="G21" s="252"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="212"/>
       <c r="H21" s="46"/>
       <c r="I21" s="62" t="s">
         <v>34</v>
@@ -3899,21 +3890,21 @@
       <c r="E22" s="29">
         <v>2</v>
       </c>
-      <c r="F22" s="226"/>
-      <c r="G22" s="227"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="188"/>
       <c r="H22" s="49" t="str">
         <f>T4</f>
         <v>DD-MM-YYYY</v>
       </c>
-      <c r="I22" s="228" t="s">
+      <c r="I22" s="195" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="228"/>
-      <c r="K22" s="228"/>
-      <c r="L22" s="228"/>
-      <c r="M22" s="228"/>
-      <c r="N22" s="228"/>
-      <c r="O22" s="229"/>
+      <c r="J22" s="195"/>
+      <c r="K22" s="195"/>
+      <c r="L22" s="195"/>
+      <c r="M22" s="195"/>
+      <c r="N22" s="195"/>
+      <c r="O22" s="196"/>
       <c r="P22" s="17"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -3925,18 +3916,18 @@
       <c r="E23" s="29">
         <v>2</v>
       </c>
-      <c r="F23" s="230"/>
-      <c r="G23" s="231"/>
+      <c r="F23" s="240"/>
+      <c r="G23" s="241"/>
       <c r="H23" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="228"/>
-      <c r="J23" s="228"/>
-      <c r="K23" s="228"/>
-      <c r="L23" s="228"/>
-      <c r="M23" s="228"/>
-      <c r="N23" s="228"/>
-      <c r="O23" s="229"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="195"/>
+      <c r="K23" s="195"/>
+      <c r="L23" s="195"/>
+      <c r="M23" s="195"/>
+      <c r="N23" s="195"/>
+      <c r="O23" s="196"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -3948,21 +3939,21 @@
       <c r="E24" s="29">
         <v>2</v>
       </c>
-      <c r="F24" s="226"/>
-      <c r="G24" s="227"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="188"/>
       <c r="H24" s="49" t="str">
         <f>H22</f>
         <v>DD-MM-YYYY</v>
       </c>
-      <c r="I24" s="228" t="s">
+      <c r="I24" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="228"/>
-      <c r="K24" s="228"/>
-      <c r="L24" s="228"/>
-      <c r="M24" s="228"/>
-      <c r="N24" s="228"/>
-      <c r="O24" s="229"/>
+      <c r="J24" s="195"/>
+      <c r="K24" s="195"/>
+      <c r="L24" s="195"/>
+      <c r="M24" s="195"/>
+      <c r="N24" s="195"/>
+      <c r="O24" s="196"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -3974,18 +3965,18 @@
       <c r="E25" s="29">
         <v>2</v>
       </c>
-      <c r="F25" s="230"/>
-      <c r="G25" s="231"/>
+      <c r="F25" s="240"/>
+      <c r="G25" s="241"/>
       <c r="H25" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="228"/>
-      <c r="J25" s="228"/>
-      <c r="K25" s="228"/>
-      <c r="L25" s="228"/>
-      <c r="M25" s="228"/>
-      <c r="N25" s="228"/>
-      <c r="O25" s="229"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="195"/>
+      <c r="K25" s="195"/>
+      <c r="L25" s="195"/>
+      <c r="M25" s="195"/>
+      <c r="N25" s="195"/>
+      <c r="O25" s="196"/>
       <c r="P25" s="17"/>
     </row>
     <row r="26" spans="2:16" ht="30" x14ac:dyDescent="0.25">
@@ -3997,37 +3988,37 @@
       <c r="E26" s="29">
         <v>2</v>
       </c>
-      <c r="F26" s="236"/>
-      <c r="G26" s="237"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="216"/>
       <c r="H26" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="214" t="s">
+      <c r="I26" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="J26" s="214"/>
-      <c r="K26" s="214"/>
-      <c r="L26" s="214"/>
-      <c r="M26" s="214"/>
-      <c r="N26" s="214"/>
-      <c r="O26" s="215"/>
+      <c r="J26" s="213"/>
+      <c r="K26" s="213"/>
+      <c r="L26" s="213"/>
+      <c r="M26" s="213"/>
+      <c r="N26" s="213"/>
+      <c r="O26" s="214"/>
       <c r="P26" s="17"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="253"/>
-      <c r="C27" s="254"/>
-      <c r="D27" s="254"/>
-      <c r="E27" s="254"/>
-      <c r="F27" s="254"/>
-      <c r="G27" s="255"/>
-      <c r="H27" s="255"/>
-      <c r="I27" s="255"/>
-      <c r="J27" s="255"/>
-      <c r="K27" s="255"/>
-      <c r="L27" s="255"/>
-      <c r="M27" s="255"/>
-      <c r="N27" s="255"/>
-      <c r="O27" s="240"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="200"/>
+      <c r="D27" s="200"/>
+      <c r="E27" s="200"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="201"/>
+      <c r="H27" s="201"/>
+      <c r="I27" s="201"/>
+      <c r="J27" s="201"/>
+      <c r="K27" s="201"/>
+      <c r="L27" s="201"/>
+      <c r="M27" s="201"/>
+      <c r="N27" s="201"/>
+      <c r="O27" s="202"/>
       <c r="P27" s="17"/>
     </row>
     <row r="28" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
@@ -4059,15 +4050,15 @@
       <c r="H29" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="256" t="s">
+      <c r="I29" s="203" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="256"/>
-      <c r="K29" s="256"/>
-      <c r="L29" s="256"/>
-      <c r="M29" s="256"/>
-      <c r="N29" s="256"/>
-      <c r="O29" s="257"/>
+      <c r="J29" s="203"/>
+      <c r="K29" s="203"/>
+      <c r="L29" s="203"/>
+      <c r="M29" s="203"/>
+      <c r="N29" s="203"/>
+      <c r="O29" s="204"/>
       <c r="P29" s="37"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -4077,21 +4068,21 @@
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
       <c r="E30" s="40"/>
-      <c r="F30" s="258" t="str">
+      <c r="F30" s="205" t="str">
         <f>F20&amp;""</f>
         <v/>
       </c>
-      <c r="G30" s="259"/>
+      <c r="G30" s="206"/>
       <c r="H30" s="41"/>
-      <c r="I30" s="260" t="s">
+      <c r="I30" s="207" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="260"/>
-      <c r="K30" s="260"/>
-      <c r="L30" s="260"/>
-      <c r="M30" s="260"/>
-      <c r="N30" s="260"/>
-      <c r="O30" s="261"/>
+      <c r="J30" s="207"/>
+      <c r="K30" s="207"/>
+      <c r="L30" s="207"/>
+      <c r="M30" s="207"/>
+      <c r="N30" s="207"/>
+      <c r="O30" s="208"/>
       <c r="P30" s="17"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -4101,21 +4092,21 @@
       <c r="C31" s="59"/>
       <c r="D31" s="60"/>
       <c r="E31" s="29"/>
-      <c r="F31" s="258" t="str">
+      <c r="F31" s="205" t="str">
         <f>F21&amp;""</f>
         <v/>
       </c>
-      <c r="G31" s="259"/>
+      <c r="G31" s="206"/>
       <c r="H31" s="61"/>
-      <c r="I31" s="262" t="s">
+      <c r="I31" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="J31" s="262"/>
-      <c r="K31" s="262"/>
-      <c r="L31" s="262"/>
-      <c r="M31" s="262"/>
-      <c r="N31" s="262"/>
-      <c r="O31" s="263"/>
+      <c r="J31" s="209"/>
+      <c r="K31" s="209"/>
+      <c r="L31" s="209"/>
+      <c r="M31" s="209"/>
+      <c r="N31" s="209"/>
+      <c r="O31" s="210"/>
       <c r="P31" s="17"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -4128,18 +4119,18 @@
         <f>IF(F32&lt;&gt;"",2,0)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="232"/>
-      <c r="G32" s="233"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="188"/>
       <c r="H32" s="46"/>
-      <c r="I32" s="234" t="s">
+      <c r="I32" s="242" t="s">
         <v>50</v>
       </c>
-      <c r="J32" s="234"/>
-      <c r="K32" s="234"/>
-      <c r="L32" s="234"/>
-      <c r="M32" s="234"/>
-      <c r="N32" s="234"/>
-      <c r="O32" s="235"/>
+      <c r="J32" s="242"/>
+      <c r="K32" s="242"/>
+      <c r="L32" s="242"/>
+      <c r="M32" s="242"/>
+      <c r="N32" s="242"/>
+      <c r="O32" s="243"/>
       <c r="P32" s="17"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
@@ -4152,8 +4143,8 @@
         <f>IF(F33&lt;&gt;"",IF(AND(LEN(F33)&gt;=S33,LEN(F33)&lt;=T33),2,1),0)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="232"/>
-      <c r="G33" s="233"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="188"/>
       <c r="H33" s="46"/>
       <c r="I33" s="62" t="s">
         <v>51</v>
@@ -4175,21 +4166,21 @@
       <c r="E34" s="29">
         <v>2</v>
       </c>
-      <c r="F34" s="268"/>
-      <c r="G34" s="269"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="190"/>
       <c r="H34" s="49" t="str">
         <f>H22</f>
         <v>DD-MM-YYYY</v>
       </c>
-      <c r="I34" s="266" t="s">
+      <c r="I34" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="J34" s="270"/>
-      <c r="K34" s="270"/>
-      <c r="L34" s="270"/>
-      <c r="M34" s="270"/>
-      <c r="N34" s="270"/>
-      <c r="O34" s="271"/>
+      <c r="J34" s="191"/>
+      <c r="K34" s="191"/>
+      <c r="L34" s="191"/>
+      <c r="M34" s="191"/>
+      <c r="N34" s="191"/>
+      <c r="O34" s="192"/>
       <c r="P34" s="17"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.25">
@@ -4201,18 +4192,18 @@
       <c r="E35" s="29">
         <v>2</v>
       </c>
-      <c r="F35" s="272"/>
-      <c r="G35" s="273"/>
+      <c r="F35" s="193"/>
+      <c r="G35" s="194"/>
       <c r="H35" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I35" s="270"/>
-      <c r="J35" s="270"/>
-      <c r="K35" s="270"/>
-      <c r="L35" s="270"/>
-      <c r="M35" s="270"/>
-      <c r="N35" s="270"/>
-      <c r="O35" s="271"/>
+      <c r="I35" s="191"/>
+      <c r="J35" s="191"/>
+      <c r="K35" s="191"/>
+      <c r="L35" s="191"/>
+      <c r="M35" s="191"/>
+      <c r="N35" s="191"/>
+      <c r="O35" s="192"/>
       <c r="P35" s="17"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
@@ -4224,21 +4215,21 @@
       <c r="E36" s="29">
         <v>2</v>
       </c>
-      <c r="F36" s="226"/>
-      <c r="G36" s="227"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="188"/>
       <c r="H36" s="49" t="str">
         <f>H22</f>
         <v>DD-MM-YYYY</v>
       </c>
-      <c r="I36" s="228" t="s">
+      <c r="I36" s="195" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="228"/>
-      <c r="K36" s="228"/>
-      <c r="L36" s="228"/>
-      <c r="M36" s="228"/>
-      <c r="N36" s="228"/>
-      <c r="O36" s="229"/>
+      <c r="J36" s="195"/>
+      <c r="K36" s="195"/>
+      <c r="L36" s="195"/>
+      <c r="M36" s="195"/>
+      <c r="N36" s="195"/>
+      <c r="O36" s="196"/>
       <c r="P36" s="17"/>
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.25">
@@ -4250,18 +4241,18 @@
       <c r="E37" s="29">
         <v>2</v>
       </c>
-      <c r="F37" s="274"/>
-      <c r="G37" s="275"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="198"/>
       <c r="H37" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="I37" s="228"/>
-      <c r="J37" s="228"/>
-      <c r="K37" s="228"/>
-      <c r="L37" s="228"/>
-      <c r="M37" s="228"/>
-      <c r="N37" s="228"/>
-      <c r="O37" s="229"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="195"/>
+      <c r="K37" s="195"/>
+      <c r="L37" s="195"/>
+      <c r="M37" s="195"/>
+      <c r="N37" s="195"/>
+      <c r="O37" s="196"/>
       <c r="P37" s="17"/>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.25">
@@ -4273,23 +4264,23 @@
       <c r="E38" s="29">
         <v>2</v>
       </c>
-      <c r="F38" s="264" t="str">
+      <c r="F38" s="183" t="str">
         <f>IF(AND(ISBLANK(G46),ISBLANK(G48),ISBLANK(G50),ISBLANK(G52),ISBLANK(G54),ISBLANK(G56),ISBLANK(G58),ISBLANK(G60),ISBLANK(G62),ISBLANK(G64),ISBLANK(G66)),"",(SUM(G45:G67)))</f>
         <v/>
       </c>
-      <c r="G38" s="265"/>
+      <c r="G38" s="184"/>
       <c r="H38" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="I38" s="266" t="s">
+      <c r="I38" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="J38" s="266"/>
-      <c r="K38" s="266"/>
-      <c r="L38" s="266"/>
-      <c r="M38" s="266"/>
-      <c r="N38" s="266"/>
-      <c r="O38" s="267"/>
+      <c r="J38" s="185"/>
+      <c r="K38" s="185"/>
+      <c r="L38" s="185"/>
+      <c r="M38" s="185"/>
+      <c r="N38" s="185"/>
+      <c r="O38" s="186"/>
       <c r="P38" s="17"/>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.25"/>
@@ -4312,22 +4303,22 @@
       <c r="O40" s="55"/>
     </row>
     <row r="41" spans="2:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="213" t="s">
+      <c r="B41" s="229" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="214"/>
-      <c r="D41" s="214"/>
-      <c r="E41" s="214"/>
-      <c r="F41" s="214"/>
-      <c r="G41" s="214"/>
-      <c r="H41" s="214"/>
-      <c r="I41" s="214"/>
-      <c r="J41" s="214"/>
-      <c r="K41" s="214"/>
-      <c r="L41" s="214"/>
-      <c r="M41" s="214"/>
-      <c r="N41" s="214"/>
-      <c r="O41" s="215"/>
+      <c r="C41" s="213"/>
+      <c r="D41" s="213"/>
+      <c r="E41" s="213"/>
+      <c r="F41" s="213"/>
+      <c r="G41" s="213"/>
+      <c r="H41" s="213"/>
+      <c r="I41" s="213"/>
+      <c r="J41" s="213"/>
+      <c r="K41" s="213"/>
+      <c r="L41" s="213"/>
+      <c r="M41" s="213"/>
+      <c r="N41" s="213"/>
+      <c r="O41" s="214"/>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B42" s="70"/>
@@ -4361,12 +4352,12 @@
       <c r="O42" s="75"/>
     </row>
     <row r="43" spans="2:26" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="216"/>
-      <c r="C43" s="217"/>
-      <c r="D43" s="218" t="s">
+      <c r="B43" s="230"/>
+      <c r="C43" s="231"/>
+      <c r="D43" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="219"/>
+      <c r="E43" s="233"/>
       <c r="F43" s="76" t="s">
         <v>63</v>
       </c>
@@ -4423,11 +4414,11 @@
         <v>72</v>
       </c>
       <c r="C44" s="29"/>
-      <c r="D44" s="220" t="str">
+      <c r="D44" s="234" t="str">
         <f>F18&amp;""</f>
         <v/>
       </c>
-      <c r="E44" s="221"/>
+      <c r="E44" s="235"/>
       <c r="F44" s="82" t="str">
         <f>F20&amp;""</f>
         <v/>
@@ -4465,15 +4456,15 @@
         <v>73</v>
       </c>
       <c r="C45" s="29"/>
-      <c r="D45" s="210" t="str">
+      <c r="D45" s="244" t="str">
         <f>F30&amp;""</f>
         <v/>
       </c>
-      <c r="E45" s="211"/>
-      <c r="F45" s="208" t="s">
+      <c r="E45" s="245"/>
+      <c r="F45" s="246" t="s">
         <v>74</v>
       </c>
-      <c r="G45" s="209"/>
+      <c r="G45" s="247"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="2"/>
@@ -4512,8 +4503,8 @@
         <v>75</v>
       </c>
       <c r="C46" s="29"/>
-      <c r="D46" s="212"/>
-      <c r="E46" s="205"/>
+      <c r="D46" s="248"/>
+      <c r="E46" s="249"/>
       <c r="F46" s="5"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -4551,15 +4542,15 @@
         <v>76</v>
       </c>
       <c r="C47" s="29"/>
-      <c r="D47" s="206" t="str">
+      <c r="D47" s="250" t="str">
         <f>IF(F46="","_empty_",F46)</f>
         <v>_empty_</v>
       </c>
-      <c r="E47" s="207"/>
-      <c r="F47" s="208" t="s">
+      <c r="E47" s="251"/>
+      <c r="F47" s="246" t="s">
         <v>74</v>
       </c>
-      <c r="G47" s="209"/>
+      <c r="G47" s="247"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="2"/>
@@ -4595,8 +4586,8 @@
         <v>77</v>
       </c>
       <c r="C48" s="29"/>
-      <c r="D48" s="204"/>
-      <c r="E48" s="205"/>
+      <c r="D48" s="252"/>
+      <c r="E48" s="249"/>
       <c r="F48" s="5"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -4634,15 +4625,15 @@
         <v>78</v>
       </c>
       <c r="C49" s="29"/>
-      <c r="D49" s="206" t="str">
+      <c r="D49" s="250" t="str">
         <f>IF(F48="","_empty_",F48)</f>
         <v>_empty_</v>
       </c>
-      <c r="E49" s="207"/>
-      <c r="F49" s="208" t="s">
+      <c r="E49" s="251"/>
+      <c r="F49" s="246" t="s">
         <v>74</v>
       </c>
-      <c r="G49" s="209"/>
+      <c r="G49" s="247"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="2"/>
@@ -4678,8 +4669,8 @@
         <v>79</v>
       </c>
       <c r="C50" s="29"/>
-      <c r="D50" s="204"/>
-      <c r="E50" s="205"/>
+      <c r="D50" s="252"/>
+      <c r="E50" s="249"/>
       <c r="F50" s="6"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -4717,15 +4708,15 @@
         <v>80</v>
       </c>
       <c r="C51" s="29"/>
-      <c r="D51" s="206" t="str">
+      <c r="D51" s="250" t="str">
         <f>IF(F50="","_empty_",F50)</f>
         <v>_empty_</v>
       </c>
-      <c r="E51" s="207"/>
-      <c r="F51" s="208" t="s">
+      <c r="E51" s="251"/>
+      <c r="F51" s="246" t="s">
         <v>74</v>
       </c>
-      <c r="G51" s="209"/>
+      <c r="G51" s="247"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="2"/>
@@ -4761,8 +4752,8 @@
         <v>81</v>
       </c>
       <c r="C52" s="29"/>
-      <c r="D52" s="204"/>
-      <c r="E52" s="205"/>
+      <c r="D52" s="252"/>
+      <c r="E52" s="249"/>
       <c r="F52" s="6"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -4800,15 +4791,15 @@
         <v>82</v>
       </c>
       <c r="C53" s="29"/>
-      <c r="D53" s="206" t="str">
+      <c r="D53" s="250" t="str">
         <f>IF(F52="","_empty_",F52)</f>
         <v>_empty_</v>
       </c>
-      <c r="E53" s="207"/>
-      <c r="F53" s="208" t="s">
+      <c r="E53" s="251"/>
+      <c r="F53" s="246" t="s">
         <v>74</v>
       </c>
-      <c r="G53" s="209"/>
+      <c r="G53" s="247"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="2"/>
@@ -4844,8 +4835,8 @@
         <v>83</v>
       </c>
       <c r="C54" s="29"/>
-      <c r="D54" s="204"/>
-      <c r="E54" s="205"/>
+      <c r="D54" s="252"/>
+      <c r="E54" s="249"/>
       <c r="F54" s="6"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -4883,15 +4874,15 @@
         <v>84</v>
       </c>
       <c r="C55" s="29"/>
-      <c r="D55" s="206" t="str">
+      <c r="D55" s="250" t="str">
         <f>IF(F54="","_empty_",F54)</f>
         <v>_empty_</v>
       </c>
-      <c r="E55" s="207"/>
-      <c r="F55" s="208" t="s">
+      <c r="E55" s="251"/>
+      <c r="F55" s="246" t="s">
         <v>74</v>
       </c>
-      <c r="G55" s="209"/>
+      <c r="G55" s="247"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="2"/>
@@ -4927,8 +4918,8 @@
         <v>85</v>
       </c>
       <c r="C56" s="29"/>
-      <c r="D56" s="204"/>
-      <c r="E56" s="205"/>
+      <c r="D56" s="252"/>
+      <c r="E56" s="249"/>
       <c r="F56" s="6"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -4966,15 +4957,15 @@
         <v>86</v>
       </c>
       <c r="C57" s="29"/>
-      <c r="D57" s="206" t="str">
+      <c r="D57" s="250" t="str">
         <f>IF(F56="","_empty_",F56)</f>
         <v>_empty_</v>
       </c>
-      <c r="E57" s="207"/>
-      <c r="F57" s="208" t="s">
+      <c r="E57" s="251"/>
+      <c r="F57" s="246" t="s">
         <v>74</v>
       </c>
-      <c r="G57" s="209"/>
+      <c r="G57" s="247"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="2"/>
@@ -5010,8 +5001,8 @@
         <v>87</v>
       </c>
       <c r="C58" s="29"/>
-      <c r="D58" s="204"/>
-      <c r="E58" s="205"/>
+      <c r="D58" s="252"/>
+      <c r="E58" s="249"/>
       <c r="F58" s="6"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -5049,15 +5040,15 @@
         <v>88</v>
       </c>
       <c r="C59" s="29"/>
-      <c r="D59" s="206" t="str">
+      <c r="D59" s="250" t="str">
         <f>IF(F58="","_empty_",F58)</f>
         <v>_empty_</v>
       </c>
-      <c r="E59" s="207"/>
-      <c r="F59" s="208" t="s">
+      <c r="E59" s="251"/>
+      <c r="F59" s="246" t="s">
         <v>74</v>
       </c>
-      <c r="G59" s="209"/>
+      <c r="G59" s="247"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="2"/>
@@ -5093,8 +5084,8 @@
         <v>89</v>
       </c>
       <c r="C60" s="29"/>
-      <c r="D60" s="204"/>
-      <c r="E60" s="205"/>
+      <c r="D60" s="252"/>
+      <c r="E60" s="249"/>
       <c r="F60" s="6"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -5132,15 +5123,15 @@
         <v>90</v>
       </c>
       <c r="C61" s="29"/>
-      <c r="D61" s="206" t="str">
+      <c r="D61" s="250" t="str">
         <f>IF(F60="","_empty_",F60)</f>
         <v>_empty_</v>
       </c>
-      <c r="E61" s="207"/>
-      <c r="F61" s="208" t="s">
+      <c r="E61" s="251"/>
+      <c r="F61" s="246" t="s">
         <v>74</v>
       </c>
-      <c r="G61" s="209"/>
+      <c r="G61" s="247"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="2"/>
@@ -5176,8 +5167,8 @@
         <v>91</v>
       </c>
       <c r="C62" s="29"/>
-      <c r="D62" s="204"/>
-      <c r="E62" s="205"/>
+      <c r="D62" s="252"/>
+      <c r="E62" s="249"/>
       <c r="F62" s="6"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -5215,15 +5206,15 @@
         <v>92</v>
       </c>
       <c r="C63" s="29"/>
-      <c r="D63" s="206" t="str">
+      <c r="D63" s="250" t="str">
         <f>IF(F62="","_empty_",F62)</f>
         <v>_empty_</v>
       </c>
-      <c r="E63" s="207"/>
-      <c r="F63" s="208" t="s">
+      <c r="E63" s="251"/>
+      <c r="F63" s="246" t="s">
         <v>74</v>
       </c>
-      <c r="G63" s="209"/>
+      <c r="G63" s="247"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="2"/>
@@ -5259,8 +5250,8 @@
         <v>93</v>
       </c>
       <c r="C64" s="29"/>
-      <c r="D64" s="204"/>
-      <c r="E64" s="205"/>
+      <c r="D64" s="252"/>
+      <c r="E64" s="249"/>
       <c r="F64" s="6"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -5298,15 +5289,15 @@
         <v>94</v>
       </c>
       <c r="C65" s="29"/>
-      <c r="D65" s="206" t="str">
+      <c r="D65" s="250" t="str">
         <f>IF(F64="","_empty_",F64)</f>
         <v>_empty_</v>
       </c>
-      <c r="E65" s="207"/>
-      <c r="F65" s="208" t="s">
+      <c r="E65" s="251"/>
+      <c r="F65" s="246" t="s">
         <v>74</v>
       </c>
-      <c r="G65" s="209"/>
+      <c r="G65" s="247"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="2"/>
@@ -5342,8 +5333,8 @@
         <v>95</v>
       </c>
       <c r="C66" s="29"/>
-      <c r="D66" s="204"/>
-      <c r="E66" s="205"/>
+      <c r="D66" s="252"/>
+      <c r="E66" s="249"/>
       <c r="F66" s="6"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -5381,15 +5372,15 @@
         <v>96</v>
       </c>
       <c r="C67" s="29"/>
-      <c r="D67" s="206" t="str">
+      <c r="D67" s="250" t="str">
         <f>IF(F66="","_empty_",F66)</f>
         <v>_empty_</v>
       </c>
-      <c r="E67" s="207"/>
-      <c r="F67" s="208" t="s">
+      <c r="E67" s="251"/>
+      <c r="F67" s="246" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="209"/>
+      <c r="G67" s="247"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="2"/>
@@ -5421,14 +5412,14 @@
       </c>
     </row>
     <row r="68" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B68" s="202" t="s">
+      <c r="B68" s="253" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="203"/>
-      <c r="D68" s="203"/>
-      <c r="E68" s="203"/>
-      <c r="F68" s="203"/>
-      <c r="G68" s="203"/>
+      <c r="C68" s="254"/>
+      <c r="D68" s="254"/>
+      <c r="E68" s="254"/>
+      <c r="F68" s="254"/>
+      <c r="G68" s="254"/>
       <c r="H68" s="1">
         <f t="shared" ref="H68:O68" si="5">SUM(H45:H67)</f>
         <v>0</v>
@@ -5464,15 +5455,15 @@
     </row>
     <row r="69" spans="2:26" x14ac:dyDescent="0.25"/>
     <row r="70" spans="2:26" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B70" s="190" t="s">
+      <c r="B70" s="255" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="191"/>
-      <c r="D70" s="191"/>
-      <c r="E70" s="191"/>
-      <c r="F70" s="191"/>
-      <c r="G70" s="192"/>
-      <c r="H70" s="192"/>
+      <c r="C70" s="256"/>
+      <c r="D70" s="256"/>
+      <c r="E70" s="256"/>
+      <c r="F70" s="256"/>
+      <c r="G70" s="257"/>
+      <c r="H70" s="257"/>
       <c r="I70" s="34" t="s">
         <v>10</v>
       </c>
@@ -5512,8 +5503,8 @@
       <c r="D72" s="97"/>
       <c r="E72" s="97"/>
       <c r="F72" s="97"/>
-      <c r="G72" s="193"/>
-      <c r="H72" s="194"/>
+      <c r="G72" s="258"/>
+      <c r="H72" s="259"/>
       <c r="I72" s="98" t="s">
         <v>101</v>
       </c>
@@ -5532,8 +5523,8 @@
       <c r="D73" s="102"/>
       <c r="E73" s="102"/>
       <c r="F73" s="102"/>
-      <c r="G73" s="195"/>
-      <c r="H73" s="196"/>
+      <c r="G73" s="260"/>
+      <c r="H73" s="261"/>
       <c r="I73" s="103" t="s">
         <v>103</v>
       </c>
@@ -5545,15 +5536,15 @@
       <c r="O73" s="104"/>
     </row>
     <row r="74" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B74" s="197" t="s">
+      <c r="B74" s="262" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="198"/>
-      <c r="D74" s="199"/>
-      <c r="E74" s="199"/>
-      <c r="F74" s="199"/>
-      <c r="G74" s="200"/>
-      <c r="H74" s="201"/>
+      <c r="C74" s="263"/>
+      <c r="D74" s="264"/>
+      <c r="E74" s="264"/>
+      <c r="F74" s="264"/>
+      <c r="G74" s="265"/>
+      <c r="H74" s="266"/>
       <c r="I74" s="105" t="s">
         <v>105</v>
       </c>
@@ -5572,15 +5563,15 @@
       <c r="D75" s="109"/>
       <c r="E75" s="109"/>
       <c r="F75" s="108"/>
-      <c r="G75" s="184"/>
-      <c r="H75" s="185"/>
-      <c r="I75" s="185"/>
-      <c r="J75" s="185"/>
-      <c r="K75" s="185"/>
-      <c r="L75" s="185"/>
-      <c r="M75" s="185"/>
-      <c r="N75" s="185"/>
-      <c r="O75" s="186"/>
+      <c r="G75" s="268"/>
+      <c r="H75" s="269"/>
+      <c r="I75" s="269"/>
+      <c r="J75" s="269"/>
+      <c r="K75" s="269"/>
+      <c r="L75" s="269"/>
+      <c r="M75" s="269"/>
+      <c r="N75" s="269"/>
+      <c r="O75" s="270"/>
     </row>
     <row r="76" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="110"/>
@@ -5652,16 +5643,16 @@
       <c r="G79" s="127" t="s">
         <v>111</v>
       </c>
-      <c r="H79" s="187" t="s">
+      <c r="H79" s="271" t="s">
         <v>112</v>
       </c>
-      <c r="I79" s="187"/>
-      <c r="J79" s="187"/>
-      <c r="K79" s="187"/>
-      <c r="L79" s="187"/>
-      <c r="M79" s="187"/>
-      <c r="N79" s="187"/>
-      <c r="O79" s="188"/>
+      <c r="I79" s="271"/>
+      <c r="J79" s="271"/>
+      <c r="K79" s="271"/>
+      <c r="L79" s="271"/>
+      <c r="M79" s="271"/>
+      <c r="N79" s="271"/>
+      <c r="O79" s="272"/>
     </row>
     <row r="80" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="123" t="s">
@@ -5677,16 +5668,16 @@
       <c r="G80" s="127" t="s">
         <v>111</v>
       </c>
-      <c r="H80" s="187" t="s">
+      <c r="H80" s="271" t="s">
         <v>114</v>
       </c>
-      <c r="I80" s="187"/>
-      <c r="J80" s="187"/>
-      <c r="K80" s="187"/>
-      <c r="L80" s="187"/>
-      <c r="M80" s="187"/>
-      <c r="N80" s="187"/>
-      <c r="O80" s="188"/>
+      <c r="I80" s="271"/>
+      <c r="J80" s="271"/>
+      <c r="K80" s="271"/>
+      <c r="L80" s="271"/>
+      <c r="M80" s="271"/>
+      <c r="N80" s="271"/>
+      <c r="O80" s="272"/>
     </row>
     <row r="81" spans="2:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="123" t="s">
@@ -5702,16 +5693,16 @@
       <c r="G81" s="127" t="s">
         <v>111</v>
       </c>
-      <c r="H81" s="187" t="s">
+      <c r="H81" s="271" t="s">
         <v>116</v>
       </c>
-      <c r="I81" s="187"/>
-      <c r="J81" s="187"/>
-      <c r="K81" s="187"/>
-      <c r="L81" s="187"/>
-      <c r="M81" s="187"/>
-      <c r="N81" s="187"/>
-      <c r="O81" s="188"/>
+      <c r="I81" s="271"/>
+      <c r="J81" s="271"/>
+      <c r="K81" s="271"/>
+      <c r="L81" s="271"/>
+      <c r="M81" s="271"/>
+      <c r="N81" s="271"/>
+      <c r="O81" s="272"/>
     </row>
     <row r="82" spans="2:15" ht="18" x14ac:dyDescent="0.25">
       <c r="B82" s="128" t="s">
@@ -5893,7 +5884,7 @@
       </c>
     </row>
     <row r="91" spans="2:15" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E91" s="189" t="s">
+      <c r="E91" s="273" t="s">
         <v>141</v>
       </c>
       <c r="F91" s="154" t="s">
@@ -5911,7 +5902,7 @@
       </c>
     </row>
     <row r="92" spans="2:15" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E92" s="189"/>
+      <c r="E92" s="273"/>
       <c r="F92" s="158" t="s">
         <v>144</v>
       </c>
@@ -5927,7 +5918,7 @@
       </c>
     </row>
     <row r="93" spans="2:15" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E93" s="189"/>
+      <c r="E93" s="273"/>
       <c r="F93" s="154" t="s">
         <v>146</v>
       </c>
@@ -5943,7 +5934,7 @@
       </c>
     </row>
     <row r="94" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E94" s="189"/>
+      <c r="E94" s="273"/>
       <c r="F94" s="158" t="s">
         <v>148</v>
       </c>
@@ -5957,7 +5948,7 @@
       </c>
     </row>
     <row r="95" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E95" s="189"/>
+      <c r="E95" s="273"/>
       <c r="F95" s="163" t="s">
         <v>149</v>
       </c>
@@ -5973,7 +5964,7 @@
       </c>
     </row>
     <row r="96" spans="2:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E96" s="189"/>
+      <c r="E96" s="273"/>
       <c r="F96" s="167" t="s">
         <v>149</v>
       </c>
@@ -5989,7 +5980,7 @@
       </c>
     </row>
     <row r="97" spans="5:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E97" s="189"/>
+      <c r="E97" s="273"/>
       <c r="F97" s="154" t="s">
         <v>154</v>
       </c>
@@ -6003,7 +5994,7 @@
       </c>
     </row>
     <row r="98" spans="5:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E98" s="189"/>
+      <c r="E98" s="273"/>
       <c r="F98" s="158" t="s">
         <v>155</v>
       </c>
@@ -6017,7 +6008,7 @@
       </c>
     </row>
     <row r="99" spans="5:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E99" s="183" t="s">
+      <c r="E99" s="267" t="s">
         <v>156</v>
       </c>
       <c r="F99" s="154" t="s">
@@ -6035,7 +6026,7 @@
       </c>
     </row>
     <row r="100" spans="5:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E100" s="183"/>
+      <c r="E100" s="267"/>
       <c r="F100" s="169" t="s">
         <v>159</v>
       </c>
@@ -6048,7 +6039,7 @@
       </c>
     </row>
     <row r="101" spans="5:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E101" s="183"/>
+      <c r="E101" s="267"/>
       <c r="F101" s="154" t="s">
         <v>160</v>
       </c>
@@ -6064,7 +6055,7 @@
       </c>
     </row>
     <row r="102" spans="5:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E102" s="183"/>
+      <c r="E102" s="267"/>
       <c r="F102" s="173" t="s">
         <v>162</v>
       </c>
@@ -6077,7 +6068,7 @@
       </c>
     </row>
     <row r="103" spans="5:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E103" s="183"/>
+      <c r="E103" s="267"/>
       <c r="F103" s="154" t="s">
         <v>163</v>
       </c>
@@ -6090,7 +6081,7 @@
       </c>
     </row>
     <row r="104" spans="5:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E104" s="183"/>
+      <c r="E104" s="267"/>
       <c r="F104" s="178" t="s">
         <v>154</v>
       </c>
@@ -6103,7 +6094,7 @@
       </c>
     </row>
     <row r="105" spans="5:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E105" s="183"/>
+      <c r="E105" s="267"/>
       <c r="F105" s="154" t="s">
         <v>164</v>
       </c>
@@ -6116,7 +6107,7 @@
       </c>
     </row>
     <row r="106" spans="5:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E106" s="183"/>
+      <c r="E106" s="267"/>
       <c r="F106" s="178" t="s">
         <v>166</v>
       </c>
@@ -6130,7 +6121,7 @@
       <c r="J106" s="19"/>
     </row>
     <row r="107" spans="5:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E107" s="183"/>
+      <c r="E107" s="267"/>
       <c r="F107" s="154" t="s">
         <v>167</v>
       </c>
@@ -6144,7 +6135,7 @@
       <c r="J107" s="19"/>
     </row>
     <row r="108" spans="5:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E108" s="183"/>
+      <c r="E108" s="267"/>
       <c r="F108" s="178" t="s">
         <v>168</v>
       </c>
@@ -6158,7 +6149,7 @@
       <c r="J108" s="19"/>
     </row>
     <row r="109" spans="5:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="E109" s="183"/>
+      <c r="E109" s="267"/>
       <c r="F109" s="154" t="s">
         <v>169</v>
       </c>
@@ -6172,7 +6163,7 @@
       <c r="J109" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="F34" name="Orange fields_1"/>
     <protectedRange sqref="G41:N41" name="Orange fields_3"/>
@@ -6180,36 +6171,53 @@
     <protectedRange sqref="H75 G72:G74" name="Orange fields_2"/>
   </protectedRanges>
   <mergeCells count="93">
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:O38"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:O35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="I36:O37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B27:O27"/>
-    <mergeCell ref="I29:O29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:O30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:O31"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="E99:E109"/>
+    <mergeCell ref="G75:O75"/>
+    <mergeCell ref="H79:O79"/>
+    <mergeCell ref="H80:O80"/>
+    <mergeCell ref="H81:O81"/>
+    <mergeCell ref="E91:E98"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
     <mergeCell ref="B41:O41"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
@@ -6226,53 +6234,36 @@
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="I26:O26"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="E99:E109"/>
-    <mergeCell ref="G75:O75"/>
-    <mergeCell ref="H79:O79"/>
-    <mergeCell ref="H80:O80"/>
-    <mergeCell ref="H81:O81"/>
-    <mergeCell ref="E91:E98"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="I29:O29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:O30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:O31"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:O38"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:O35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I36:O37"/>
+    <mergeCell ref="F37:G37"/>
   </mergeCells>
   <conditionalFormatting sqref="D45:E67">
     <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="_empty_">
